--- a/Sample.Application/Data.xlsx
+++ b/Sample.Application/Data.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>MDP</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -790,1312 +793,1466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="82.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>43836</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>43836</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4.5</v>
       </c>
-      <c r="F3" t="b">
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>43838</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>43838</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>43839</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>43839</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.5</v>
       </c>
-      <c r="F7" s="4" t="b">
+      <c r="G7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>43839</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>43840</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.5</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>43843</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="F10" s="4" t="b">
+      <c r="G10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>43844</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="F11" s="4" t="b">
+      <c r="G11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>43844</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4.5</v>
       </c>
-      <c r="F12" s="4" t="b">
+      <c r="G12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>43845</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>43845</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>43845</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>43846</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
         <v>43846</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
         <v>43846</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="F18" s="4" t="b">
+      <c r="G18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
         <v>43847</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.5</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
         <v>43847</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
         <v>43850</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
         <v>43851</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
         <v>43852</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>43852</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
         <v>43853</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.5</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
         <v>43853</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
         <v>43854</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="F27" s="4" t="b">
+      <c r="G27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
         <v>43854</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28" s="4" t="b">
+      <c r="G28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
         <v>43857</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
         <v>43858</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
         <v>43858</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.5</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
         <v>43859</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>4.5</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
         <v>43860</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
         <v>43861</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
         <v>43864</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="F35" s="4" t="b">
+      <c r="G35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
         <v>43864</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>3.5</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
         <v>43865</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
         <v>43866</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="F38" s="4" t="b">
+      <c r="G38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
         <v>43866</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>6</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
         <v>43867</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="F40" s="4" t="b">
+      <c r="G40" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
         <v>43867</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>6</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
         <v>43868</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1.5</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
         <v>43868</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
         <v>43868</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>3.5</v>
       </c>
-      <c r="F44" s="4" t="b">
+      <c r="G44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
         <v>43869</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1.5</v>
       </c>
-      <c r="F45" s="4" t="b">
+      <c r="G45" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="J45" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
         <v>43871</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="F46" s="4" t="b">
+      <c r="G46" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="J46" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
         <v>43871</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
         <v>43871</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>4</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
         <v>43871</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
         <v>43872</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2.5</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="J50" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
         <v>43872</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>3.5</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="J51" s="5" t="s">
         <v>10</v>
       </c>
     </row>
